--- a/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0AE63-8AAA-4C7E-BB23-A314AFD36D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B75AE-1003-467F-9570-9410EB6ACDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,13 +498,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」を押下</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フロントエンドの「トップ」を押下</t>
     <rPh sb="14" eb="16">
       <t>オウカ</t>
@@ -904,6 +897,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1269,14 +1269,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1305,6 +1353,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,110 +1423,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1424,33 +1451,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1823,30 +1823,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1856,23 +1856,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1885,50 +1885,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:17" ht="55" customHeight="1">
+      <c r="A4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" ht="55" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1937,20 +1937,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1960,712 +1960,712 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="55"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="55"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="60"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="15" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="55"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="55"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="15" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="55"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="15" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="55"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="55"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="55"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="55"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="68"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="30.5" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="55"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="55"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="18" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="55"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="15" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="55"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="15" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="55"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="15" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="55"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="15" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="55"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="11.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="55"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="68"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="15" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="55"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="10.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="15" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="55"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="11">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="15" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="55"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="11">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="15" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="55"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="68"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="11">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="15" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="55"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="68"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="11">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="15" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="55"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="68"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="11">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="15" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="55"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="68"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="11">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="15" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="55"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="68"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="11">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="15" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="55"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="68"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="11">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="15" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="55"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="68"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" ht="11">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="15" t="s">
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="55"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="68"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="11">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="15" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="55"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="68"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="75" customHeight="1">
       <c r="A36" s="6">
@@ -2674,445 +2674,524 @@
       <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="55"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="15"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="68"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="50" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="55"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="52"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="27"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="36" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="55"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="1:17" ht="11" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="36" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="55"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="68"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="10.5" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="36" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="55"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="68"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="11" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="50" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="55"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="68"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="11" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="36" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="55"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="68"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="11" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="36" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="55"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="68"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="11" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="36" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="55"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="68"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="11" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="36" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="55"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="68"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="11" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="55"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="68"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="1:17" ht="11" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="16" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="55"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="68"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="11" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="36" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="55"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="68"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:17" ht="11" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="55"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="68"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:17" ht="11" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="55"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="68"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="1:17" ht="21" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="55"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="68"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="1:17" ht="28.5" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="55"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="68"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M53" s="72"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M54" s="72"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M55" s="72"/>
+      <c r="M55" s="21"/>
     </row>
     <row r="56" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M56" s="72"/>
+      <c r="M56" s="21"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M57" s="72"/>
+      <c r="M57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C24:G35"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C19:G23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C8:G15"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="H51:L51"/>
     <mergeCell ref="C52:G52"/>
@@ -3129,85 +3208,6 @@
     <mergeCell ref="H45:L45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C19:G23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C24:G35"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C8:G15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B75AE-1003-467F-9570-9410EB6ACDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA53F24-413B-47EB-8BE6-93451F1F3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>作成者</t>
   </si>
@@ -840,22 +840,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>購入（入力）画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ログイン状態であること
 ・購入商品が「カメラ」、価格が「10000」、個数「1」であること</t>
     <rPh sb="5" eb="7">
@@ -904,6 +888,57 @@
     <t>「ログアウト」を押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンに何も入ってない</t>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーページに</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入（入力）画面に遷移すし、セッションを保持する</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1290,167 +1325,167 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1804,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:G41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1823,25 +1858,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,23 +1891,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1882,53 +1917,55 @@
       <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" ht="55" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" ht="55" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1937,20 +1974,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1960,177 +1997,189 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="70"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="15"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="71" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="15"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
+      <c r="O9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="73" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="15"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
+      <c r="O11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -2139,21 +2188,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -2162,21 +2213,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -2185,21 +2238,23 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -2213,17 +2268,21 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
@@ -2236,16 +2295,18 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -2259,16 +2320,18 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -2277,115 +2340,125 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="15"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
+      <c r="O19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="24" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
+      <c r="O20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="24" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
+      <c r="O21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="24" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="O22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="11.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
@@ -2394,23 +2467,25 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
@@ -2419,21 +2494,23 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="24" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
@@ -2442,21 +2519,23 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="24" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="15"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
     </row>
@@ -2465,21 +2544,23 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="24" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="15"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
@@ -2488,21 +2569,23 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="24" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="15"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
@@ -2511,21 +2594,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="24" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
@@ -2534,21 +2619,23 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="24" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
@@ -2557,21 +2644,23 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="24" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
@@ -2580,21 +2669,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="24" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
@@ -2603,21 +2694,23 @@
         <v>28</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="24" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
@@ -2626,21 +2719,23 @@
         <v>29</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="24" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="15"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
@@ -2649,21 +2744,23 @@
         <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="24" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
@@ -2674,100 +2771,110 @@
       <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="15"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="16"/>
+      <c r="O36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="26" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="27"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
       <c r="M37" s="15"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="27"/>
+      <c r="O37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="73"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="25" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
       <c r="M38" s="15"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
+      <c r="O38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:17" ht="11" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="25" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
       <c r="M39" s="15"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
@@ -2775,24 +2882,26 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="25" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
       <c r="M40" s="15"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
@@ -2800,24 +2909,26 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="26" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="27"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="73"/>
       <c r="M41" s="15"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P41" s="16"/>
       <c r="Q41" s="17"/>
     </row>
@@ -2825,24 +2936,26 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="25" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
       <c r="M42" s="15"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
@@ -2850,24 +2963,26 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="25" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
       <c r="M43" s="15"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
@@ -2875,24 +2990,26 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="25" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
       <c r="M44" s="15"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
@@ -2900,24 +3017,26 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="25" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
       <c r="M45" s="15"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
@@ -2925,24 +3044,26 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="25" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
       <c r="M46" s="15"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
@@ -2950,24 +3071,26 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="25" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
       <c r="M47" s="15"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
@@ -2975,24 +3098,26 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="25" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
       <c r="M48" s="15"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
@@ -3000,24 +3125,26 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="25" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
       <c r="M49" s="15"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="17"/>
     </row>
@@ -3025,24 +3152,26 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="25" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
       <c r="M50" s="15"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
@@ -3050,24 +3179,26 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="15"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
@@ -3075,24 +3206,26 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="74"/>
+      <c r="C52" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="15"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
     </row>
@@ -3113,11 +3246,80 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C19:G23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C8:G15"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C24:G35"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3134,80 +3336,11 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C24:G35"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C19:G23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C8:G15"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA53F24-413B-47EB-8BE6-93451F1F3BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F8F3A-84D4-4CDA-8823-D672867A1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
   <si>
     <t>作成者</t>
   </si>
@@ -910,20 +910,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プルダウンに何も入ってない</t>
-    <rPh sb="6" eb="7">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーページに</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>購入（入力）画面に遷移すし、セッションを保持する</t>
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
@@ -939,6 +925,88 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーページにいく（修正済み）</t>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カテゴリ別商品検索画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/customer/purchaseproduct/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8081/customer/purchaseproduct/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンに何も入ってない（修正済み）</t>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウセイズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1260,7 +1328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,6 +1393,168 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1333,159 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1839,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1858,25 +1935,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,23 +1968,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1922,50 +1999,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:17" ht="55" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1974,20 +2051,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1997,186 +2074,214 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="34"/>
+      <c r="Q5" s="73"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="2"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="2"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="2"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="2"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="2"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="2"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>84</v>
       </c>
@@ -2188,20 +2293,24 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="2"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>84</v>
       </c>
@@ -2213,20 +2322,24 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="25" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="2"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>84</v>
       </c>
@@ -2238,20 +2351,24 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="2"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>84</v>
       </c>
@@ -2268,22 +2385,26 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="2"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
       <c r="A17" s="6">
@@ -2295,15 +2416,19 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="2"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2320,15 +2445,19 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="2"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>84</v>
       </c>
@@ -2340,122 +2469,142 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="2"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="25" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="2"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="25" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="2"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="25" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="2"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="11.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="25" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="2"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2467,22 +2616,26 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="25" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="2"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>84</v>
       </c>
@@ -2494,20 +2647,24 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="25" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="2"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>84</v>
       </c>
@@ -2519,20 +2676,24 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="25" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="2"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>84</v>
       </c>
@@ -2544,20 +2705,24 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="25" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="2"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O27" s="2" t="s">
         <v>84</v>
       </c>
@@ -2569,20 +2734,24 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="25" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="2"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O28" s="2" t="s">
         <v>84</v>
       </c>
@@ -2594,20 +2763,24 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="25" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="2"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O29" s="2" t="s">
         <v>84</v>
       </c>
@@ -2619,20 +2792,24 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="25" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="2"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2644,20 +2821,24 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="25" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="2"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O31" s="2" t="s">
         <v>84</v>
       </c>
@@ -2669,20 +2850,24 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="25" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="2"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O32" s="2" t="s">
         <v>84</v>
       </c>
@@ -2694,20 +2879,24 @@
         <v>28</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="25" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="2"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O33" s="2" t="s">
         <v>84</v>
       </c>
@@ -2719,20 +2908,24 @@
         <v>29</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="25" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="2"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2744,20 +2937,24 @@
         <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="25" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="2"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O35" s="2" t="s">
         <v>84</v>
       </c>
@@ -2771,107 +2968,123 @@
       <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="25" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="2"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P36" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="75" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="2"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="73"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="26" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="37" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="2"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
     </row>
     <row r="39" spans="1:17" ht="11" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="37" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="2"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O39" s="2" t="s">
         <v>84</v>
       </c>
@@ -2882,23 +3095,27 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="37" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="2"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O40" s="2" t="s">
         <v>84</v>
       </c>
@@ -2909,23 +3126,27 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="75" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="2"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2936,23 +3157,27 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="37" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="2"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O42" s="2" t="s">
         <v>84</v>
       </c>
@@ -2963,23 +3188,27 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="37" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="2"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2990,23 +3219,27 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="37" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="2"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O44" s="2" t="s">
         <v>84</v>
       </c>
@@ -3017,23 +3250,27 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="37" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="2"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O45" s="2" t="s">
         <v>84</v>
       </c>
@@ -3044,23 +3281,27 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="37" t="s">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="2"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O46" s="2" t="s">
         <v>84</v>
       </c>
@@ -3071,23 +3312,27 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="37" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="2"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O47" s="2" t="s">
         <v>85</v>
       </c>
@@ -3098,23 +3343,27 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="37" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="2"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O48" s="2" t="s">
         <v>85</v>
       </c>
@@ -3125,23 +3374,27 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="37" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="2"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O49" s="2" t="s">
         <v>85</v>
       </c>
@@ -3152,23 +3405,27 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="37" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="2"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O50" s="2" t="s">
         <v>85</v>
       </c>
@@ -3179,23 +3436,27 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="25" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="2"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3206,34 +3467,98 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="74"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="2"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="O52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="17"/>
     </row>
-    <row r="53" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M53" s="21"/>
-    </row>
-    <row r="54" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M54" s="21"/>
+    <row r="53" spans="1:17" ht="41" customHeight="1">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="23"/>
+    </row>
+    <row r="54" spans="1:17" ht="33" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="23"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" customHeight="1">
       <c r="M55" s="21"/>
@@ -3245,7 +3570,92 @@
       <c r="M57" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="101">
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C24:G35"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C19:G23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C8:G15"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="H51:L51"/>
     <mergeCell ref="C52:G52"/>
@@ -3262,85 +3672,6 @@
     <mergeCell ref="H45:L45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C19:G23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C8:G15"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C24:G35"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP009購入(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F8F3A-84D4-4CDA-8823-D672867A1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E19601-58D5-4134-AF51-298C4D23E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>作成者</t>
   </si>
@@ -903,10 +903,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1328,7 +1324,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,6 +1398,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1409,160 +1408,160 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1916,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1935,25 +1934,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,23 +1967,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="61" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1999,50 +1998,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="71"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="55" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2051,20 +2050,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="72" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2074,32 +2073,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="73"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15">
         <v>45511</v>
       </c>
@@ -2109,28 +2108,28 @@
       <c r="O6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="74" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="15">
         <v>45511</v>
       </c>
@@ -2140,28 +2139,28 @@
       <c r="O7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15">
         <v>45511</v>
       </c>
@@ -2169,26 +2168,26 @@
         <v>83</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15">
         <v>45511</v>
       </c>
@@ -2198,26 +2197,26 @@
       <c r="O9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="76" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="15">
         <v>45511</v>
       </c>
@@ -2227,26 +2226,26 @@
       <c r="O10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15">
         <v>45511</v>
       </c>
@@ -2256,26 +2255,26 @@
       <c r="O11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15">
         <v>45511</v>
       </c>
@@ -2293,18 +2292,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15">
         <v>45511</v>
       </c>
@@ -2322,18 +2321,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15">
         <v>45511</v>
       </c>
@@ -2351,18 +2350,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15">
         <v>45511</v>
       </c>
@@ -2385,13 +2384,13 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15">
         <v>45511</v>
       </c>
@@ -2401,8 +2400,8 @@
       <c r="O16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="29" t="s">
-        <v>93</v>
+      <c r="P16" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="Q16" s="30"/>
     </row>
@@ -2416,13 +2415,13 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15">
         <v>45511</v>
       </c>
@@ -2445,13 +2444,13 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15">
         <v>45511</v>
       </c>
@@ -2469,20 +2468,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="15">
         <v>45511</v>
       </c>
@@ -2492,26 +2491,26 @@
       <c r="O19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="27" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15">
         <v>45511</v>
       </c>
@@ -2521,26 +2520,26 @@
       <c r="O20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="27" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15">
         <v>45511</v>
       </c>
@@ -2550,26 +2549,26 @@
       <c r="O21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="27" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15">
         <v>45511</v>
       </c>
@@ -2579,26 +2578,26 @@
       <c r="O22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="1:17" ht="11.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15">
         <v>45511</v>
       </c>
@@ -2616,20 +2615,20 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15">
         <v>45511</v>
       </c>
@@ -2647,18 +2646,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="27" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15">
         <v>45511</v>
       </c>
@@ -2676,18 +2675,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="27" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="15">
         <v>45511</v>
       </c>
@@ -2705,18 +2704,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="27" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="15">
         <v>45511</v>
       </c>
@@ -2734,18 +2733,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="27" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="15">
         <v>45511</v>
       </c>
@@ -2763,18 +2762,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="27" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15">
         <v>45511</v>
       </c>
@@ -2792,18 +2791,18 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="27" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15">
         <v>45511</v>
       </c>
@@ -2821,18 +2820,18 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="27" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15">
         <v>45511</v>
       </c>
@@ -2850,18 +2849,18 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="27" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15">
         <v>45511</v>
       </c>
@@ -2879,18 +2878,18 @@
         <v>28</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="27" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15">
         <v>45511</v>
       </c>
@@ -2908,18 +2907,18 @@
         <v>29</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="27" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="15">
         <v>45511</v>
       </c>
@@ -2937,18 +2936,18 @@
         <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="27" t="s">
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15">
         <v>45511</v>
       </c>
@@ -2968,20 +2967,20 @@
       <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="15">
         <v>45511</v>
       </c>
@@ -2991,8 +2990,8 @@
       <c r="O36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="29" t="s">
-        <v>87</v>
+      <c r="P36" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="Q36" s="30"/>
     </row>
@@ -3000,22 +2999,22 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="29" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
       <c r="L37" s="30"/>
       <c r="M37" s="15">
         <v>45511</v>
@@ -3026,28 +3025,28 @@
       <c r="O37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="29"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="28" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
       <c r="M38" s="15">
         <v>45511</v>
       </c>
@@ -3057,28 +3056,28 @@
       <c r="O38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
     </row>
     <row r="39" spans="1:17" ht="11" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="28" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
       <c r="M39" s="15">
         <v>45511</v>
       </c>
@@ -3095,21 +3094,21 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="28" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
       <c r="M40" s="15">
         <v>45511</v>
       </c>
@@ -3126,20 +3125,20 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="29" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="30"/>
       <c r="M41" s="15">
         <v>45511</v>
@@ -3157,21 +3156,21 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="28" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
       <c r="M42" s="15">
         <v>45511</v>
       </c>
@@ -3188,21 +3187,21 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="42"/>
+      <c r="C43" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="28" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
       <c r="M43" s="15">
         <v>45511</v>
       </c>
@@ -3219,21 +3218,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="28" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
       <c r="M44" s="15">
         <v>45511</v>
       </c>
@@ -3250,21 +3249,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="42"/>
+      <c r="C45" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="28" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
       <c r="M45" s="15">
         <v>45511</v>
       </c>
@@ -3281,21 +3280,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="28" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
       <c r="M46" s="15">
         <v>45511</v>
       </c>
@@ -3312,21 +3311,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="42"/>
+      <c r="C47" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="28" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
       <c r="M47" s="15">
         <v>45511</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>83</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
@@ -3343,21 +3342,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="28" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
       <c r="M48" s="15">
         <v>45511</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>83</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
@@ -3374,21 +3373,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="28" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
       <c r="M49" s="15">
         <v>45511</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>83</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="17"/>
@@ -3405,21 +3404,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="28" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
       <c r="M50" s="15">
         <v>45511</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>83</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
@@ -3436,21 +3435,21 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="15">
         <v>45511</v>
       </c>
@@ -3467,21 +3466,21 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="15">
         <v>45511</v>
       </c>
@@ -3499,21 +3498,21 @@
         <v>50</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
       <c r="L53" s="30"/>
       <c r="M53" s="15">
         <v>45511</v>
@@ -3532,26 +3531,26 @@
         <v>51</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+        <v>87</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
       <c r="L54" s="30"/>
       <c r="M54" s="15">
         <v>45511</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="79" t="s">
         <v>83</v>
       </c>
       <c r="O54" s="2" t="s">
@@ -3571,33 +3570,41 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="B37:B52"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -3616,62 +3623,54 @@
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="C19:G23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C8:G15"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C8:G15"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
     <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
     <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
